--- a/Code/Results/Cases/Case_2_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9667300007234019</v>
+        <v>0.4326722531054088</v>
       </c>
       <c r="C2">
-        <v>0.1345686522628924</v>
+        <v>0.2660528520615735</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1209399705054786</v>
+        <v>0.2714861773106989</v>
       </c>
       <c r="F2">
-        <v>0.9238388341035559</v>
+        <v>1.90682579283839</v>
       </c>
       <c r="G2">
-        <v>0.3020243998262728</v>
+        <v>0.6686317955516756</v>
       </c>
       <c r="H2">
-        <v>0.2995998791846475</v>
+        <v>0.7959293737825561</v>
       </c>
       <c r="I2">
-        <v>0.3482249898415049</v>
+        <v>0.8749464674336735</v>
       </c>
       <c r="J2">
-        <v>0.09353207977900269</v>
+        <v>0.06042750262368912</v>
       </c>
       <c r="K2">
-        <v>0.8017835068939547</v>
+        <v>0.2445710176413343</v>
       </c>
       <c r="L2">
-        <v>0.3195633953246499</v>
+        <v>0.4732650883759248</v>
       </c>
       <c r="M2">
-        <v>0.2651340551120036</v>
+        <v>0.2061586896605192</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.214521098082542</v>
+        <v>2.923428377088641</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8413965725786738</v>
+        <v>0.3945831403443947</v>
       </c>
       <c r="C3">
-        <v>0.1360525647841939</v>
+        <v>0.2669925875600043</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1162360539804794</v>
+        <v>0.2716035406041435</v>
       </c>
       <c r="F3">
-        <v>0.8958220841255553</v>
+        <v>1.912287296736473</v>
       </c>
       <c r="G3">
-        <v>0.3059677887076901</v>
+        <v>0.6750814457028511</v>
       </c>
       <c r="H3">
-        <v>0.3069435761916637</v>
+        <v>0.8023702817060538</v>
       </c>
       <c r="I3">
-        <v>0.3591403318555386</v>
+        <v>0.8835941260302356</v>
       </c>
       <c r="J3">
-        <v>0.08590324581855668</v>
+        <v>0.05780448986753584</v>
       </c>
       <c r="K3">
-        <v>0.7055642084518041</v>
+        <v>0.2134082565045077</v>
       </c>
       <c r="L3">
-        <v>0.29053625982759</v>
+        <v>0.4674403829995271</v>
       </c>
       <c r="M3">
-        <v>0.2322184103663112</v>
+        <v>0.1971236038341537</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.237933025117954</v>
+        <v>2.950364293147089</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7644315528111463</v>
+        <v>0.3712192648488326</v>
       </c>
       <c r="C4">
-        <v>0.1370280205314103</v>
+        <v>0.2676117186556013</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1134683022061402</v>
+        <v>0.2717671728211286</v>
       </c>
       <c r="F4">
-        <v>0.8800463143174966</v>
+        <v>1.916527572474088</v>
       </c>
       <c r="G4">
-        <v>0.3090927680807098</v>
+        <v>0.6794178987366593</v>
       </c>
       <c r="H4">
-        <v>0.3118984679510959</v>
+        <v>0.8066129958586146</v>
       </c>
       <c r="I4">
-        <v>0.3664831328334088</v>
+        <v>0.8892844243697731</v>
       </c>
       <c r="J4">
-        <v>0.08120637819246213</v>
+        <v>0.05618041296457221</v>
       </c>
       <c r="K4">
-        <v>0.6463821219231392</v>
+        <v>0.1941988069387719</v>
       </c>
       <c r="L4">
-        <v>0.2729337159508134</v>
+        <v>0.4640323972208762</v>
       </c>
       <c r="M4">
-        <v>0.2120689097864776</v>
+        <v>0.1916307671396744</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.254725450876421</v>
+        <v>2.968296157598331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7330584818234911</v>
+        <v>0.3617048286762383</v>
       </c>
       <c r="C5">
-        <v>0.1374416031902932</v>
+        <v>0.2678746440819069</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1123697940314585</v>
+        <v>0.2718569445016712</v>
       </c>
       <c r="F5">
-        <v>0.8739632659092322</v>
+        <v>1.918478843970867</v>
       </c>
       <c r="G5">
-        <v>0.3105369082176068</v>
+        <v>0.6812796751111065</v>
       </c>
       <c r="H5">
-        <v>0.3140270495988986</v>
+        <v>0.8084144215415137</v>
       </c>
       <c r="I5">
-        <v>0.3696322201651956</v>
+        <v>0.8916990231166686</v>
       </c>
       <c r="J5">
-        <v>0.07928880637364344</v>
+        <v>0.05551521464643017</v>
       </c>
       <c r="K5">
-        <v>0.6222343177166465</v>
+        <v>0.1863523900111375</v>
       </c>
       <c r="L5">
-        <v>0.2658128174191461</v>
+        <v>0.4626861677390792</v>
       </c>
       <c r="M5">
-        <v>0.2038709015745219</v>
+        <v>0.1894063591100164</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.262157447869555</v>
+        <v>2.975953997077923</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7278482622556623</v>
+        <v>0.3601253804839075</v>
       </c>
       <c r="C6">
-        <v>0.1375112464748547</v>
+        <v>0.2679189452444177</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1121891354483431</v>
+        <v>0.2718732474952894</v>
       </c>
       <c r="F6">
-        <v>0.8729736890400801</v>
+        <v>1.918816348449667</v>
       </c>
       <c r="G6">
-        <v>0.3107868369732145</v>
+        <v>0.6815945375430132</v>
       </c>
       <c r="H6">
-        <v>0.3143870314028945</v>
+        <v>0.8087179269706155</v>
       </c>
       <c r="I6">
-        <v>0.3701644741773684</v>
+        <v>0.8921057503169116</v>
       </c>
       <c r="J6">
-        <v>0.07897016986404282</v>
+        <v>0.0554045560865255</v>
       </c>
       <c r="K6">
-        <v>0.6182226116825404</v>
+        <v>0.1850484026410584</v>
       </c>
       <c r="L6">
-        <v>0.2646334673788289</v>
+        <v>0.4624652034499377</v>
       </c>
       <c r="M6">
-        <v>0.2025103556634207</v>
+        <v>0.1890378474031493</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.263426557198812</v>
+        <v>2.97724674682847</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7640084904794833</v>
+        <v>0.371090922387566</v>
       </c>
       <c r="C7">
-        <v>0.1370335332847539</v>
+        <v>0.2676152215004066</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1134533695989788</v>
+        <v>0.2717682899367979</v>
       </c>
       <c r="F7">
-        <v>0.8799628932862475</v>
+        <v>1.916552983360027</v>
       </c>
       <c r="G7">
-        <v>0.3091115612618154</v>
+        <v>0.6794426241209948</v>
       </c>
       <c r="H7">
-        <v>0.3119267351640787</v>
+        <v>0.8066369969286953</v>
       </c>
       <c r="I7">
-        <v>0.3665249730368316</v>
+        <v>0.8893166007128883</v>
       </c>
       <c r="J7">
-        <v>0.08118053202480979</v>
+        <v>0.05617145548792735</v>
       </c>
       <c r="K7">
-        <v>0.6460565861979433</v>
+        <v>0.1940930612328913</v>
       </c>
       <c r="L7">
-        <v>0.272837473332487</v>
+        <v>0.4640140689336505</v>
       </c>
       <c r="M7">
-        <v>0.211958298485321</v>
+        <v>0.1916007111728959</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.254823321212925</v>
+        <v>2.968398014701776</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.923512851420071</v>
+        <v>0.4195347927409045</v>
       </c>
       <c r="C8">
-        <v>0.1350668927287444</v>
+        <v>0.2663681471921393</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1192924889149545</v>
+        <v>0.2715076766366593</v>
       </c>
       <c r="F8">
-        <v>0.9138745461860225</v>
+        <v>1.908525027887727</v>
       </c>
       <c r="G8">
-        <v>0.3032341701229342</v>
+        <v>0.6707775266816114</v>
       </c>
       <c r="H8">
-        <v>0.3020378042185925</v>
+        <v>0.798090474440059</v>
       </c>
       <c r="I8">
-        <v>0.3518529875066108</v>
+        <v>0.8778492173954184</v>
       </c>
       <c r="J8">
-        <v>0.09090407747301299</v>
+        <v>0.05952591466020607</v>
       </c>
       <c r="K8">
-        <v>0.7686255255310073</v>
+        <v>0.2338420627232551</v>
       </c>
       <c r="L8">
-        <v>0.3095072120504909</v>
+        <v>0.4712218975141695</v>
       </c>
       <c r="M8">
-        <v>0.2537707312977453</v>
+        <v>0.2030321483517916</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.222080168985656</v>
+        <v>2.932426834427744</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.236561219380661</v>
+        <v>0.5146872127127438</v>
       </c>
       <c r="C9">
-        <v>0.1317254588633574</v>
+        <v>0.2642555634281685</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1317428995602867</v>
+        <v>0.2717205650746131</v>
       </c>
       <c r="F9">
-        <v>0.9923125511159867</v>
+        <v>1.899807096095017</v>
       </c>
       <c r="G9">
-        <v>0.2975875364289351</v>
+        <v>0.6567714035698344</v>
       </c>
       <c r="H9">
-        <v>0.2863092826283022</v>
+        <v>0.7836123966137407</v>
       </c>
       <c r="I9">
-        <v>0.3283658462318435</v>
+        <v>0.8583792338351586</v>
       </c>
       <c r="J9">
-        <v>0.109888740786154</v>
+        <v>0.06599555115040801</v>
       </c>
       <c r="K9">
-        <v>1.00840379416934</v>
+        <v>0.3111711735054428</v>
       </c>
       <c r="L9">
-        <v>0.3833141811010279</v>
+        <v>0.4866847229527593</v>
       </c>
       <c r="M9">
-        <v>0.3363573724067095</v>
+        <v>0.2258758538021794</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.177942573523097</v>
+        <v>2.872934456956855</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.467238286806776</v>
+        <v>0.5846585020924522</v>
       </c>
       <c r="C10">
-        <v>0.1295915196781934</v>
+        <v>0.2629045712697788</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1415647154291726</v>
+        <v>0.2723150706450497</v>
       </c>
       <c r="F10">
-        <v>1.05812224737349</v>
+        <v>1.897670171628292</v>
       </c>
       <c r="G10">
-        <v>0.2974521878056535</v>
+        <v>0.6483016814979408</v>
       </c>
       <c r="H10">
-        <v>0.2771701972984957</v>
+        <v>0.7743617230925821</v>
       </c>
       <c r="I10">
-        <v>0.3146218479852401</v>
+        <v>0.845910783969348</v>
       </c>
       <c r="J10">
-        <v>0.1238133341989069</v>
+        <v>0.07068169080796594</v>
       </c>
       <c r="K10">
-        <v>1.184586109861982</v>
+        <v>0.367585721616706</v>
       </c>
       <c r="L10">
-        <v>0.438921550320444</v>
+        <v>0.4988459384606898</v>
       </c>
       <c r="M10">
-        <v>0.3975620653859053</v>
+        <v>0.2429107283567475</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.159045478743522</v>
+        <v>2.835951061408267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.572451824620885</v>
+        <v>0.6164977124705615</v>
       </c>
       <c r="C11">
-        <v>0.128692106074773</v>
+        <v>0.2623332562300043</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1461945354918512</v>
+        <v>0.2726799856835349</v>
       </c>
       <c r="F11">
-        <v>1.090048456279945</v>
+        <v>1.897621887782279</v>
       </c>
       <c r="G11">
-        <v>0.298362373501476</v>
+        <v>0.6448439590763968</v>
       </c>
       <c r="H11">
-        <v>0.2735802181255664</v>
+        <v>0.7704534245367043</v>
       </c>
       <c r="I11">
-        <v>0.3091996370164232</v>
+        <v>0.840636542104523</v>
       </c>
       <c r="J11">
-        <v>0.1301493286301465</v>
+        <v>0.07279877820670322</v>
       </c>
       <c r="K11">
-        <v>1.264828828546484</v>
+        <v>0.3931591476679728</v>
       </c>
       <c r="L11">
-        <v>0.4645715684559519</v>
+        <v>0.5045504171418287</v>
       </c>
       <c r="M11">
-        <v>0.4255600502722174</v>
+        <v>0.2507132689014782</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.153689444728045</v>
+        <v>2.820584929775393</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.612343977662448</v>
+        <v>0.6285550040190913</v>
       </c>
       <c r="C12">
-        <v>0.1283619303197305</v>
+        <v>0.2621231043445711</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1479723101219541</v>
+        <v>0.2728316935920034</v>
       </c>
       <c r="F12">
-        <v>1.102442608286566</v>
+        <v>1.897736168293847</v>
       </c>
       <c r="G12">
-        <v>0.2988556566397307</v>
+        <v>0.6435914444806414</v>
       </c>
       <c r="H12">
-        <v>0.2723061994588534</v>
+        <v>0.7690165051079134</v>
       </c>
       <c r="I12">
-        <v>0.3072717489211279</v>
+        <v>0.8386964675146054</v>
       </c>
       <c r="J12">
-        <v>0.1325493747521733</v>
+        <v>0.07359832983457437</v>
       </c>
       <c r="K12">
-        <v>1.295236128626925</v>
+        <v>0.4028297365827598</v>
       </c>
       <c r="L12">
-        <v>0.4743400111991605</v>
+        <v>0.5067351410550884</v>
       </c>
       <c r="M12">
-        <v>0.4361879349641811</v>
+        <v>0.2536753689801117</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.152154050022133</v>
+        <v>2.814975675597509</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.603750092205701</v>
+        <v>0.6259582423535619</v>
       </c>
       <c r="C13">
-        <v>0.128432573877884</v>
+        <v>0.2621680893301672</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.147588320788504</v>
+        <v>0.272798420155933</v>
       </c>
       <c r="F13">
-        <v>1.099759464253481</v>
+        <v>1.897705664549505</v>
       </c>
       <c r="G13">
-        <v>0.298742662616867</v>
+        <v>0.6438586671678834</v>
       </c>
       <c r="H13">
-        <v>0.2725767192605701</v>
+        <v>0.7693240567915183</v>
       </c>
       <c r="I13">
-        <v>0.3076812778205209</v>
+        <v>0.8391117552007721</v>
       </c>
       <c r="J13">
-        <v>0.1320324404307129</v>
+        <v>0.07342622797651899</v>
       </c>
       <c r="K13">
-        <v>1.288686312010782</v>
+        <v>0.4007476126494396</v>
       </c>
       <c r="L13">
-        <v>0.4722336675304177</v>
+        <v>0.5062635326645335</v>
       </c>
       <c r="M13">
-        <v>0.4338978344297075</v>
+        <v>0.2530370999428513</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.152462361806485</v>
+        <v>2.816174409343631</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.575732711758462</v>
+        <v>0.6174896682399833</v>
       </c>
       <c r="C14">
-        <v>0.1286647327017789</v>
+        <v>0.2623158429554522</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1463402941589464</v>
+        <v>0.2726921961306914</v>
       </c>
       <c r="F14">
-        <v>1.091061921217417</v>
+        <v>1.897628634518583</v>
       </c>
       <c r="G14">
-        <v>0.2983999250126885</v>
+        <v>0.6447397744729102</v>
       </c>
       <c r="H14">
-        <v>0.2734736689671919</v>
+        <v>0.7703343454621816</v>
       </c>
       <c r="I14">
-        <v>0.3090384798101624</v>
+        <v>0.8404757854453067</v>
       </c>
       <c r="J14">
-        <v>0.1303467639667346</v>
+        <v>0.07286460095993164</v>
       </c>
       <c r="K14">
-        <v>1.267329988696588</v>
+        <v>0.3939550270474967</v>
       </c>
       <c r="L14">
-        <v>0.4653740886783311</v>
+        <v>0.5047296646566366</v>
       </c>
       <c r="M14">
-        <v>0.4264338790706717</v>
+        <v>0.2509568146380445</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.153553090551355</v>
+        <v>2.820119253401288</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.558578091984884</v>
+        <v>0.6123024597616507</v>
       </c>
       <c r="C15">
-        <v>0.1288082975235412</v>
+        <v>0.2624071519739033</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1455790801156631</v>
+        <v>0.2726288900258034</v>
       </c>
       <c r="F15">
-        <v>1.085774628667394</v>
+        <v>1.897598706924626</v>
       </c>
       <c r="G15">
-        <v>0.2982096148449429</v>
+        <v>0.6452868822820221</v>
       </c>
       <c r="H15">
-        <v>0.2740343194869368</v>
+        <v>0.770958783630924</v>
       </c>
       <c r="I15">
-        <v>0.3098863190117136</v>
+        <v>0.8413187373570317</v>
       </c>
       <c r="J15">
-        <v>0.1293143507684107</v>
+        <v>0.07252030801161169</v>
       </c>
       <c r="K15">
-        <v>1.25425159896443</v>
+        <v>0.3897925948946011</v>
       </c>
       <c r="L15">
-        <v>0.461179741521164</v>
+        <v>0.5037933185648455</v>
       </c>
       <c r="M15">
-        <v>0.421865432714803</v>
+        <v>0.2496835432793034</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.154286197177086</v>
+        <v>2.822562874127655</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.460368770893098</v>
+        <v>0.5825778451023211</v>
       </c>
       <c r="C16">
-        <v>0.1296517468479621</v>
+        <v>0.262942776135894</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1412655109604408</v>
+        <v>0.2722931182642405</v>
       </c>
       <c r="F16">
-        <v>1.056077365477435</v>
+        <v>1.897691892787805</v>
       </c>
       <c r="G16">
-        <v>0.2974130064755727</v>
+        <v>0.6485356059676448</v>
       </c>
       <c r="H16">
-        <v>0.277416551594527</v>
+        <v>0.7746231693198666</v>
       </c>
       <c r="I16">
-        <v>0.3149934119068796</v>
+        <v>0.8462634690446755</v>
       </c>
       <c r="J16">
-        <v>0.1233993375953162</v>
+        <v>0.07054303614525281</v>
       </c>
       <c r="K16">
-        <v>1.179344609083302</v>
+        <v>0.3659125795265084</v>
       </c>
       <c r="L16">
-        <v>0.4372527571495084</v>
+        <v>0.4984765859625497</v>
       </c>
       <c r="M16">
-        <v>0.3957357384026068</v>
+        <v>0.2424018678736459</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.159462972859316</v>
+        <v>2.836984603498379</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.40019860460194</v>
+        <v>0.5643444651406071</v>
       </c>
       <c r="C17">
-        <v>0.1301875519014821</v>
+        <v>0.2632824238150917</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1386616203989988</v>
+        <v>0.2721112851888385</v>
       </c>
       <c r="F17">
-        <v>1.038381239993242</v>
+        <v>1.897985472238574</v>
       </c>
       <c r="G17">
-        <v>0.2971793592983403</v>
+        <v>0.6506298271984079</v>
       </c>
       <c r="H17">
-        <v>0.279639431689759</v>
+        <v>0.776947919087597</v>
       </c>
       <c r="I17">
-        <v>0.3183432172483798</v>
+        <v>0.8493987491389774</v>
       </c>
       <c r="J17">
-        <v>0.119771437808005</v>
+        <v>0.06932626386718965</v>
       </c>
       <c r="K17">
-        <v>1.133421307817031</v>
+        <v>0.3512395312624221</v>
       </c>
       <c r="L17">
-        <v>0.4226680576481101</v>
+        <v>0.4952589170682273</v>
       </c>
       <c r="M17">
-        <v>0.3797481478170894</v>
+        <v>0.2379482912663207</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.163487311767497</v>
+        <v>2.84620519993652</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.365615774447008</v>
+        <v>0.5538579950736278</v>
       </c>
       <c r="C18">
-        <v>0.1305024364089853</v>
+        <v>0.2634818534715819</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1371790818207472</v>
+        <v>0.2720155954450689</v>
       </c>
       <c r="F18">
-        <v>1.028388955014364</v>
+        <v>1.898241301847676</v>
       </c>
       <c r="G18">
-        <v>0.2971358766813381</v>
+        <v>0.6518715644116568</v>
       </c>
       <c r="H18">
-        <v>0.2809711409460007</v>
+        <v>0.7783132829165424</v>
       </c>
       <c r="I18">
-        <v>0.3203476796925671</v>
+        <v>0.8512395159679684</v>
       </c>
       <c r="J18">
-        <v>0.1176848867469431</v>
+        <v>0.06862503078130544</v>
       </c>
       <c r="K18">
-        <v>1.107016058260996</v>
+        <v>0.3427915617266422</v>
       </c>
       <c r="L18">
-        <v>0.4143123580646346</v>
+        <v>0.4934244275949879</v>
       </c>
       <c r="M18">
-        <v>0.3705669521107566</v>
+        <v>0.2353917406544141</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.166105303668189</v>
+        <v>2.851645862039021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.353910695859128</v>
+        <v>0.5503076336612764</v>
       </c>
       <c r="C19">
-        <v>0.1306101976518441</v>
+        <v>0.2635500773689259</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1366796836291755</v>
+        <v>0.2719847263103397</v>
       </c>
       <c r="F19">
-        <v>1.025037152047773</v>
+        <v>1.898342867093504</v>
       </c>
       <c r="G19">
-        <v>0.2971365050612462</v>
+        <v>0.6522983831905833</v>
       </c>
       <c r="H19">
-        <v>0.2814310532583448</v>
+        <v>0.7787804216965313</v>
       </c>
       <c r="I19">
-        <v>0.3210395303792524</v>
+        <v>0.8518691985340077</v>
       </c>
       <c r="J19">
-        <v>0.1169784221711012</v>
+        <v>0.06838736972906645</v>
       </c>
       <c r="K19">
-        <v>1.09807696228674</v>
+        <v>0.3399297963492529</v>
       </c>
       <c r="L19">
-        <v>0.4114888043630316</v>
+        <v>0.4928060947133872</v>
       </c>
       <c r="M19">
-        <v>0.3674607414389399</v>
+        <v>0.234527006835485</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.167043009420297</v>
+        <v>2.853511546154778</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.406601115163483</v>
+        <v>0.566285353543833</v>
       </c>
       <c r="C20">
-        <v>0.1301298196416241</v>
+        <v>0.2632458463716603</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1389372318563282</v>
+        <v>0.2721297213970111</v>
       </c>
       <c r="F20">
-        <v>1.040245636718453</v>
+        <v>1.897945221103214</v>
       </c>
       <c r="G20">
-        <v>0.2971947604382379</v>
+        <v>0.6504030439158299</v>
       </c>
       <c r="H20">
-        <v>0.2793972726426048</v>
+        <v>0.7766975242758747</v>
       </c>
       <c r="I20">
-        <v>0.3179785360330172</v>
+        <v>0.8490611188505284</v>
       </c>
       <c r="J20">
-        <v>0.1201576178277435</v>
+        <v>0.06945593421074392</v>
       </c>
       <c r="K20">
-        <v>1.13830897877159</v>
+        <v>0.3528023780751539</v>
       </c>
       <c r="L20">
-        <v>0.4242171736148208</v>
+        <v>0.4955997653556778</v>
       </c>
       <c r="M20">
-        <v>0.3814485362504598</v>
+        <v>0.2384218631949011</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.163027334170252</v>
+        <v>2.845209450521622</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.583960652024331</v>
+        <v>0.6199770873251111</v>
       </c>
       <c r="C21">
-        <v>0.1285962581374349</v>
+        <v>0.2622722762856888</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1467061925651798</v>
+        <v>0.2727230302020978</v>
       </c>
       <c r="F21">
-        <v>1.093608187742873</v>
+        <v>1.897647664569888</v>
       </c>
       <c r="G21">
-        <v>0.2984964886248846</v>
+        <v>0.6444794288454645</v>
       </c>
       <c r="H21">
-        <v>0.2732078629196053</v>
+        <v>0.7700364307535494</v>
       </c>
       <c r="I21">
-        <v>0.3086363839741963</v>
+        <v>0.8400735854195744</v>
       </c>
       <c r="J21">
-        <v>0.1308418636498914</v>
+        <v>0.07302962288183323</v>
       </c>
       <c r="K21">
-        <v>1.27360222488764</v>
+        <v>0.3959505455478052</v>
       </c>
       <c r="L21">
-        <v>0.4673873746937574</v>
+        <v>0.5051795339676062</v>
       </c>
       <c r="M21">
-        <v>0.4286255002757784</v>
+        <v>0.251567644460188</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.153219120172295</v>
+        <v>2.818954870014593</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.700172443398372</v>
+        <v>0.6550701253004547</v>
       </c>
       <c r="C22">
-        <v>0.1276547597004942</v>
+        <v>0.2616720751901944</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1519274773969386</v>
+        <v>0.2731895823536163</v>
       </c>
       <c r="F22">
-        <v>1.130267213429136</v>
+        <v>1.898225751603235</v>
       </c>
       <c r="G22">
-        <v>0.3002179897068018</v>
+        <v>0.6409393777528152</v>
       </c>
       <c r="H22">
-        <v>0.2696626135585092</v>
+        <v>0.7659340319911294</v>
       </c>
       <c r="I22">
-        <v>0.3032646413873366</v>
+        <v>0.8345329103531398</v>
       </c>
       <c r="J22">
-        <v>0.1378292219833526</v>
+        <v>0.07535272507475099</v>
       </c>
       <c r="K22">
-        <v>1.362151051530702</v>
+        <v>0.4240713313851927</v>
       </c>
       <c r="L22">
-        <v>0.4959264032279833</v>
+        <v>0.5115835320339386</v>
       </c>
       <c r="M22">
-        <v>0.4596095864624559</v>
+        <v>0.2602024810451482</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.149695034942042</v>
+        <v>2.803017467383526</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.638117290680185</v>
+        <v>0.6363403590320047</v>
       </c>
       <c r="C23">
-        <v>0.1281516402191905</v>
+        <v>0.2619891212842909</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1491271739550406</v>
+        <v>0.2729333859591563</v>
       </c>
       <c r="F23">
-        <v>1.110532061006808</v>
+        <v>1.897846619043563</v>
       </c>
       <c r="G23">
-        <v>0.2992164475967769</v>
+        <v>0.6427984421003998</v>
       </c>
       <c r="H23">
-        <v>0.2715077138019097</v>
+        <v>0.7681006096083109</v>
       </c>
       <c r="I23">
-        <v>0.3060624060632868</v>
+        <v>0.8374595935804692</v>
       </c>
       <c r="J23">
-        <v>0.1340993417237684</v>
+        <v>0.0741139980365233</v>
       </c>
       <c r="K23">
-        <v>1.314876735750119</v>
+        <v>0.409070166493251</v>
       </c>
       <c r="L23">
-        <v>0.4806633285796664</v>
+        <v>0.5081525773654931</v>
       </c>
       <c r="M23">
-        <v>0.4430578234506157</v>
+        <v>0.2555900147776597</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.151302529175041</v>
+        <v>2.811411814401822</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.40370651037523</v>
+        <v>0.565407889849638</v>
       </c>
       <c r="C24">
-        <v>0.13015589909336</v>
+        <v>0.2632623700680732</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1388125829338129</v>
+        <v>0.2721213588206908</v>
       </c>
       <c r="F24">
-        <v>1.039402179149221</v>
+        <v>1.897963147478862</v>
       </c>
       <c r="G24">
-        <v>0.2971875152887407</v>
+        <v>0.6505054550780045</v>
       </c>
       <c r="H24">
-        <v>0.2795065856285603</v>
+        <v>0.7768106379494171</v>
       </c>
       <c r="I24">
-        <v>0.3181431639954369</v>
+        <v>0.8492136423486158</v>
       </c>
       <c r="J24">
-        <v>0.1199830284428387</v>
+        <v>0.06939731552390072</v>
       </c>
       <c r="K24">
-        <v>1.136099273652803</v>
+        <v>0.3520958531085228</v>
       </c>
       <c r="L24">
-        <v>0.4235167275475789</v>
+        <v>0.4954456198877892</v>
       </c>
       <c r="M24">
-        <v>0.3806797588549813</v>
+        <v>0.2382077492555865</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.163234344085822</v>
+        <v>2.845659193927702</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.151793588647536</v>
+        <v>0.488932688979105</v>
       </c>
       <c r="C25">
-        <v>0.1325735661948642</v>
+        <v>0.2647916223449549</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1282611811304086</v>
+        <v>0.2715858045755191</v>
       </c>
       <c r="F25">
-        <v>0.9697245340462786</v>
+        <v>1.901414953077762</v>
       </c>
       <c r="G25">
-        <v>0.2984427860265484</v>
+        <v>0.6602407292113455</v>
       </c>
       <c r="H25">
-        <v>0.290153736607742</v>
+        <v>0.7872853104100912</v>
       </c>
       <c r="I25">
-        <v>0.3341249266631685</v>
+        <v>0.8633236876393759</v>
       </c>
       <c r="J25">
-        <v>0.1047590618471403</v>
+        <v>0.06425705493904132</v>
       </c>
       <c r="K25">
-        <v>0.9435626797897783</v>
+        <v>0.290320108543682</v>
       </c>
       <c r="L25">
-        <v>0.3631218394050535</v>
+        <v>0.4823603548444737</v>
       </c>
       <c r="M25">
-        <v>0.3139354101744445</v>
+        <v>0.2196512273843467</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.187604703183041</v>
+        <v>2.887846983560053</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4326722531054088</v>
+        <v>0.9667300007232598</v>
       </c>
       <c r="C2">
-        <v>0.2660528520615735</v>
+        <v>0.1345686522631269</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2714861773106989</v>
+        <v>0.1209399705054679</v>
       </c>
       <c r="F2">
-        <v>1.90682579283839</v>
+        <v>0.9238388341035488</v>
       </c>
       <c r="G2">
-        <v>0.6686317955516756</v>
+        <v>0.302024399826351</v>
       </c>
       <c r="H2">
-        <v>0.7959293737825561</v>
+        <v>0.2995998791846475</v>
       </c>
       <c r="I2">
-        <v>0.8749464674336735</v>
+        <v>0.3482249898415049</v>
       </c>
       <c r="J2">
-        <v>0.06042750262368912</v>
+        <v>0.09353207977899558</v>
       </c>
       <c r="K2">
-        <v>0.2445710176413343</v>
+        <v>0.8017835068941253</v>
       </c>
       <c r="L2">
-        <v>0.4732650883759248</v>
+        <v>0.3195633953246357</v>
       </c>
       <c r="M2">
-        <v>0.2061586896605192</v>
+        <v>0.2651340551120178</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.923428377088641</v>
+        <v>1.214521098082585</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3945831403443947</v>
+        <v>0.841396572578617</v>
       </c>
       <c r="C3">
-        <v>0.2669925875600043</v>
+        <v>0.1360525647839452</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2716035406041435</v>
+        <v>0.1162360539804759</v>
       </c>
       <c r="F3">
-        <v>1.912287296736473</v>
+        <v>0.8958220841255482</v>
       </c>
       <c r="G3">
-        <v>0.6750814457028511</v>
+        <v>0.3059677887076901</v>
       </c>
       <c r="H3">
-        <v>0.8023702817060538</v>
+        <v>0.3069435761917916</v>
       </c>
       <c r="I3">
-        <v>0.8835941260302356</v>
+        <v>0.3591403318555457</v>
       </c>
       <c r="J3">
-        <v>0.05780448986753584</v>
+        <v>0.08590324581853537</v>
       </c>
       <c r="K3">
-        <v>0.2134082565045077</v>
+        <v>0.7055642084517899</v>
       </c>
       <c r="L3">
-        <v>0.4674403829995271</v>
+        <v>0.2905362598275616</v>
       </c>
       <c r="M3">
-        <v>0.1971236038341537</v>
+        <v>0.2322184103663041</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.950364293147089</v>
+        <v>1.237933025117982</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3712192648488326</v>
+        <v>0.764431552811061</v>
       </c>
       <c r="C4">
-        <v>0.2676117186556013</v>
+        <v>0.1370280205316341</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2717671728211286</v>
+        <v>0.1134683022061402</v>
       </c>
       <c r="F4">
-        <v>1.916527572474088</v>
+        <v>0.8800463143174966</v>
       </c>
       <c r="G4">
-        <v>0.6794178987366593</v>
+        <v>0.3090927680807596</v>
       </c>
       <c r="H4">
-        <v>0.8066129958586146</v>
+        <v>0.3118984679510959</v>
       </c>
       <c r="I4">
-        <v>0.8892844243697731</v>
+        <v>0.3664831328333982</v>
       </c>
       <c r="J4">
-        <v>0.05618041296457221</v>
+        <v>0.08120637819248344</v>
       </c>
       <c r="K4">
-        <v>0.1941988069387719</v>
+        <v>0.6463821219231534</v>
       </c>
       <c r="L4">
-        <v>0.4640323972208762</v>
+        <v>0.2729337159508134</v>
       </c>
       <c r="M4">
-        <v>0.1916307671396744</v>
+        <v>0.2120689097864883</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.968296157598331</v>
+        <v>1.254725450876407</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3617048286762383</v>
+        <v>0.7330584818233774</v>
       </c>
       <c r="C5">
-        <v>0.2678746440819069</v>
+        <v>0.1374416031900552</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2718569445016712</v>
+        <v>0.1123697940314869</v>
       </c>
       <c r="F5">
-        <v>1.918478843970867</v>
+        <v>0.8739632659092536</v>
       </c>
       <c r="G5">
-        <v>0.6812796751111065</v>
+        <v>0.3105369082176708</v>
       </c>
       <c r="H5">
-        <v>0.8084144215415137</v>
+        <v>0.3140270495988915</v>
       </c>
       <c r="I5">
-        <v>0.8916990231166686</v>
+        <v>0.3696322201651814</v>
       </c>
       <c r="J5">
-        <v>0.05551521464643017</v>
+        <v>0.07928880637368607</v>
       </c>
       <c r="K5">
-        <v>0.1863523900111375</v>
+        <v>0.6222343177166181</v>
       </c>
       <c r="L5">
-        <v>0.4626861677390792</v>
+        <v>0.2658128174191177</v>
       </c>
       <c r="M5">
-        <v>0.1894063591100164</v>
+        <v>0.2038709015745219</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.975953997077923</v>
+        <v>1.262157447869583</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3601253804839075</v>
+        <v>0.7278482622556623</v>
       </c>
       <c r="C6">
-        <v>0.2679189452444177</v>
+        <v>0.1375112464748618</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2718732474952894</v>
+        <v>0.1121891354483218</v>
       </c>
       <c r="F6">
-        <v>1.918816348449667</v>
+        <v>0.872973689040073</v>
       </c>
       <c r="G6">
-        <v>0.6815945375430132</v>
+        <v>0.3107868369732287</v>
       </c>
       <c r="H6">
-        <v>0.8087179269706155</v>
+        <v>0.3143870314027808</v>
       </c>
       <c r="I6">
-        <v>0.8921057503169116</v>
+        <v>0.3701644741773755</v>
       </c>
       <c r="J6">
-        <v>0.0554045560865255</v>
+        <v>0.078970169864089</v>
       </c>
       <c r="K6">
-        <v>0.1850484026410584</v>
+        <v>0.618222611682711</v>
       </c>
       <c r="L6">
-        <v>0.4624652034499377</v>
+        <v>0.2646334673787152</v>
       </c>
       <c r="M6">
-        <v>0.1890378474031493</v>
+        <v>0.20251035566341</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.97724674682847</v>
+        <v>1.263426557198883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.371090922387566</v>
+        <v>0.7640084904794548</v>
       </c>
       <c r="C7">
-        <v>0.2676152215004066</v>
+        <v>0.1370335332848569</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2717682899367979</v>
+        <v>0.1134533695989681</v>
       </c>
       <c r="F7">
-        <v>1.916552983360027</v>
+        <v>0.8799628932862475</v>
       </c>
       <c r="G7">
-        <v>0.6794426241209948</v>
+        <v>0.3091115612618722</v>
       </c>
       <c r="H7">
-        <v>0.8066369969286953</v>
+        <v>0.3119267351641923</v>
       </c>
       <c r="I7">
-        <v>0.8893166007128883</v>
+        <v>0.3665249730368245</v>
       </c>
       <c r="J7">
-        <v>0.05617145548792735</v>
+        <v>0.08118053202485953</v>
       </c>
       <c r="K7">
-        <v>0.1940930612328913</v>
+        <v>0.6460565861977585</v>
       </c>
       <c r="L7">
-        <v>0.4640140689336505</v>
+        <v>0.2728374733323875</v>
       </c>
       <c r="M7">
-        <v>0.1916007111728959</v>
+        <v>0.2119582984853317</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.968398014701776</v>
+        <v>1.254823321212825</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4195347927409045</v>
+        <v>0.9235128514200142</v>
       </c>
       <c r="C8">
-        <v>0.2663681471921393</v>
+        <v>0.1350668927289185</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2715076766366593</v>
+        <v>0.1192924889149367</v>
       </c>
       <c r="F8">
-        <v>1.908525027887727</v>
+        <v>0.9138745461860367</v>
       </c>
       <c r="G8">
-        <v>0.6707775266816114</v>
+        <v>0.3032341701229271</v>
       </c>
       <c r="H8">
-        <v>0.798090474440059</v>
+        <v>0.3020378042185925</v>
       </c>
       <c r="I8">
-        <v>0.8778492173954184</v>
+        <v>0.3518529875066179</v>
       </c>
       <c r="J8">
-        <v>0.05952591466020607</v>
+        <v>0.09090407747294904</v>
       </c>
       <c r="K8">
-        <v>0.2338420627232551</v>
+        <v>0.7686255255310073</v>
       </c>
       <c r="L8">
-        <v>0.4712218975141695</v>
+        <v>0.3095072120505051</v>
       </c>
       <c r="M8">
-        <v>0.2030321483517916</v>
+        <v>0.2537707312977204</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.932426834427744</v>
+        <v>1.222080168985627</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5146872127127438</v>
+        <v>1.23656121938069</v>
       </c>
       <c r="C9">
-        <v>0.2642555634281685</v>
+        <v>0.1317254588631194</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2717205650746131</v>
+        <v>0.1317428995602512</v>
       </c>
       <c r="F9">
-        <v>1.899807096095017</v>
+        <v>0.9923125511159867</v>
       </c>
       <c r="G9">
-        <v>0.6567714035698344</v>
+        <v>0.2975875364290061</v>
       </c>
       <c r="H9">
-        <v>0.7836123966137407</v>
+        <v>0.2863092826283093</v>
       </c>
       <c r="I9">
-        <v>0.8583792338351586</v>
+        <v>0.3283658462318471</v>
       </c>
       <c r="J9">
-        <v>0.06599555115040801</v>
+        <v>0.1098887407862392</v>
       </c>
       <c r="K9">
-        <v>0.3111711735054428</v>
+        <v>1.008403794169453</v>
       </c>
       <c r="L9">
-        <v>0.4866847229527593</v>
+        <v>0.3833141811008005</v>
       </c>
       <c r="M9">
-        <v>0.2258758538021794</v>
+        <v>0.3363573724067166</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.872934456956855</v>
+        <v>1.177942573523083</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5846585020924522</v>
+        <v>1.467238286806634</v>
       </c>
       <c r="C10">
-        <v>0.2629045712697788</v>
+        <v>0.1295915196783461</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2723150706450497</v>
+        <v>0.1415647154291868</v>
       </c>
       <c r="F10">
-        <v>1.897670171628292</v>
+        <v>1.058122247373475</v>
       </c>
       <c r="G10">
-        <v>0.6483016814979408</v>
+        <v>0.2974521878055967</v>
       </c>
       <c r="H10">
-        <v>0.7743617230925821</v>
+        <v>0.2771701972984886</v>
       </c>
       <c r="I10">
-        <v>0.845910783969348</v>
+        <v>0.3146218479852436</v>
       </c>
       <c r="J10">
-        <v>0.07068169080796594</v>
+        <v>0.1238133341988998</v>
       </c>
       <c r="K10">
-        <v>0.367585721616706</v>
+        <v>1.184586109862096</v>
       </c>
       <c r="L10">
-        <v>0.4988459384606898</v>
+        <v>0.4389215503203729</v>
       </c>
       <c r="M10">
-        <v>0.2429107283567475</v>
+        <v>0.3975620653859053</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.835951061408267</v>
+        <v>1.159045478743508</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6164977124705615</v>
+        <v>1.572451824620742</v>
       </c>
       <c r="C11">
-        <v>0.2623332562300043</v>
+        <v>0.1286921060750075</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2726799856835349</v>
+        <v>0.1461945354918548</v>
       </c>
       <c r="F11">
-        <v>1.897621887782279</v>
+        <v>1.090048456279931</v>
       </c>
       <c r="G11">
-        <v>0.6448439590763968</v>
+        <v>0.2983623735015399</v>
       </c>
       <c r="H11">
-        <v>0.7704534245367043</v>
+        <v>0.2735802181255664</v>
       </c>
       <c r="I11">
-        <v>0.840636542104523</v>
+        <v>0.3091996370164267</v>
       </c>
       <c r="J11">
-        <v>0.07279877820670322</v>
+        <v>0.1301493286300826</v>
       </c>
       <c r="K11">
-        <v>0.3931591476679728</v>
+        <v>1.26482882854657</v>
       </c>
       <c r="L11">
-        <v>0.5045504171418287</v>
+        <v>0.4645715684559946</v>
       </c>
       <c r="M11">
-        <v>0.2507132689014782</v>
+        <v>0.4255600502722316</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.820584929775393</v>
+        <v>1.153689444728116</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6285550040190913</v>
+        <v>1.612343977662277</v>
       </c>
       <c r="C12">
-        <v>0.2621231043445711</v>
+        <v>0.1283619303195138</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2728316935920034</v>
+        <v>0.1479723101219435</v>
       </c>
       <c r="F12">
-        <v>1.897736168293847</v>
+        <v>1.102442608286594</v>
       </c>
       <c r="G12">
-        <v>0.6435914444806414</v>
+        <v>0.2988556566397378</v>
       </c>
       <c r="H12">
-        <v>0.7690165051079134</v>
+        <v>0.2723061994589671</v>
       </c>
       <c r="I12">
-        <v>0.8386964675146054</v>
+        <v>0.3072717489211385</v>
       </c>
       <c r="J12">
-        <v>0.07359832983457437</v>
+        <v>0.1325493747521591</v>
       </c>
       <c r="K12">
-        <v>0.4028297365827598</v>
+        <v>1.29523612862701</v>
       </c>
       <c r="L12">
-        <v>0.5067351410550884</v>
+        <v>0.4743400111992599</v>
       </c>
       <c r="M12">
-        <v>0.2536753689801117</v>
+        <v>0.4361879349641882</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.814975675597509</v>
+        <v>1.152154050022119</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6259582423535619</v>
+        <v>1.603750092205672</v>
       </c>
       <c r="C13">
-        <v>0.2621680893301672</v>
+        <v>0.1284325738778875</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.272798420155933</v>
+        <v>0.1475883207885325</v>
       </c>
       <c r="F13">
-        <v>1.897705664549505</v>
+        <v>1.099759464253495</v>
       </c>
       <c r="G13">
-        <v>0.6438586671678834</v>
+        <v>0.2987426626168173</v>
       </c>
       <c r="H13">
-        <v>0.7693240567915183</v>
+        <v>0.2725767192605772</v>
       </c>
       <c r="I13">
-        <v>0.8391117552007721</v>
+        <v>0.3076812778205209</v>
       </c>
       <c r="J13">
-        <v>0.07342622797651899</v>
+        <v>0.1320324404308124</v>
       </c>
       <c r="K13">
-        <v>0.4007476126494396</v>
+        <v>1.288686312010668</v>
       </c>
       <c r="L13">
-        <v>0.5062635326645335</v>
+        <v>0.4722336675303467</v>
       </c>
       <c r="M13">
-        <v>0.2530370999428513</v>
+        <v>0.4338978344297146</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.816174409343631</v>
+        <v>1.152462361806499</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6174896682399833</v>
+        <v>1.575732711758434</v>
       </c>
       <c r="C14">
-        <v>0.2623158429554522</v>
+        <v>0.1286647327017292</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2726921961306914</v>
+        <v>0.1463402941589678</v>
       </c>
       <c r="F14">
-        <v>1.897628634518583</v>
+        <v>1.091061921217417</v>
       </c>
       <c r="G14">
-        <v>0.6447397744729102</v>
+        <v>0.2983999250126388</v>
       </c>
       <c r="H14">
-        <v>0.7703343454621816</v>
+        <v>0.2734736689671919</v>
       </c>
       <c r="I14">
-        <v>0.8404757854453067</v>
+        <v>0.3090384798101624</v>
       </c>
       <c r="J14">
-        <v>0.07286460095993164</v>
+        <v>0.1303467639666422</v>
       </c>
       <c r="K14">
-        <v>0.3939550270474967</v>
+        <v>1.267329988696645</v>
       </c>
       <c r="L14">
-        <v>0.5047296646566366</v>
+        <v>0.4653740886782458</v>
       </c>
       <c r="M14">
-        <v>0.2509568146380445</v>
+        <v>0.4264338790707001</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.820119253401288</v>
+        <v>1.153553090551398</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6123024597616507</v>
+        <v>1.558578091984998</v>
       </c>
       <c r="C15">
-        <v>0.2624071519739033</v>
+        <v>0.1288082975236122</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2726288900258034</v>
+        <v>0.145579080115688</v>
       </c>
       <c r="F15">
-        <v>1.897598706924626</v>
+        <v>1.08577462866738</v>
       </c>
       <c r="G15">
-        <v>0.6452868822820221</v>
+        <v>0.2982096148449855</v>
       </c>
       <c r="H15">
-        <v>0.770958783630924</v>
+        <v>0.2740343194869368</v>
       </c>
       <c r="I15">
-        <v>0.8413187373570317</v>
+        <v>0.3098863190117243</v>
       </c>
       <c r="J15">
-        <v>0.07252030801161169</v>
+        <v>0.1293143507683965</v>
       </c>
       <c r="K15">
-        <v>0.3897925948946011</v>
+        <v>1.254251598964487</v>
       </c>
       <c r="L15">
-        <v>0.5037933185648455</v>
+        <v>0.4611797415211498</v>
       </c>
       <c r="M15">
-        <v>0.2496835432793034</v>
+        <v>0.421865432714803</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.822562874127655</v>
+        <v>1.154286197177143</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5825778451023211</v>
+        <v>1.460368770893098</v>
       </c>
       <c r="C16">
-        <v>0.262942776135894</v>
+        <v>0.1296517468474825</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2722931182642405</v>
+        <v>0.1412655109604621</v>
       </c>
       <c r="F16">
-        <v>1.897691892787805</v>
+        <v>1.056077365477421</v>
       </c>
       <c r="G16">
-        <v>0.6485356059676448</v>
+        <v>0.2974130064755798</v>
       </c>
       <c r="H16">
-        <v>0.7746231693198666</v>
+        <v>0.2774165515944276</v>
       </c>
       <c r="I16">
-        <v>0.8462634690446755</v>
+        <v>0.314993411906876</v>
       </c>
       <c r="J16">
-        <v>0.07054303614525281</v>
+        <v>0.1233993375954725</v>
       </c>
       <c r="K16">
-        <v>0.3659125795265084</v>
+        <v>1.179344609083472</v>
       </c>
       <c r="L16">
-        <v>0.4984765859625497</v>
+        <v>0.4372527571494658</v>
       </c>
       <c r="M16">
-        <v>0.2424018678736459</v>
+        <v>0.3957357384025926</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.836984603498379</v>
+        <v>1.159462972859359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5643444651406071</v>
+        <v>1.400198604601911</v>
       </c>
       <c r="C17">
-        <v>0.2632824238150917</v>
+        <v>0.1301875519010061</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2721112851888385</v>
+        <v>0.1386616203990521</v>
       </c>
       <c r="F17">
-        <v>1.897985472238574</v>
+        <v>1.038381239993242</v>
       </c>
       <c r="G17">
-        <v>0.6506298271984079</v>
+        <v>0.29717935929839</v>
       </c>
       <c r="H17">
-        <v>0.776947919087597</v>
+        <v>0.279639431689759</v>
       </c>
       <c r="I17">
-        <v>0.8493987491389774</v>
+        <v>0.3183432172483904</v>
       </c>
       <c r="J17">
-        <v>0.06932626386718965</v>
+        <v>0.1197714378081187</v>
       </c>
       <c r="K17">
-        <v>0.3512395312624221</v>
+        <v>1.133421307817002</v>
       </c>
       <c r="L17">
-        <v>0.4952589170682273</v>
+        <v>0.4226680576481101</v>
       </c>
       <c r="M17">
-        <v>0.2379482912663207</v>
+        <v>0.3797481478170752</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.84620519993652</v>
+        <v>1.163487311767483</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5538579950736278</v>
+        <v>1.365615774446979</v>
       </c>
       <c r="C18">
-        <v>0.2634818534715819</v>
+        <v>0.1305024364092162</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2720155954450689</v>
+        <v>0.1371790818207721</v>
       </c>
       <c r="F18">
-        <v>1.898241301847676</v>
+        <v>1.028388955014364</v>
       </c>
       <c r="G18">
-        <v>0.6518715644116568</v>
+        <v>0.2971358766813452</v>
       </c>
       <c r="H18">
-        <v>0.7783132829165424</v>
+        <v>0.2809711409458799</v>
       </c>
       <c r="I18">
-        <v>0.8512395159679684</v>
+        <v>0.3203476796925671</v>
       </c>
       <c r="J18">
-        <v>0.06862503078130544</v>
+        <v>0.1176848867469573</v>
       </c>
       <c r="K18">
-        <v>0.3427915617266422</v>
+        <v>1.107016058260996</v>
       </c>
       <c r="L18">
-        <v>0.4934244275949879</v>
+        <v>0.4143123580645067</v>
       </c>
       <c r="M18">
-        <v>0.2353917406544141</v>
+        <v>0.3705669521107708</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.851645862039021</v>
+        <v>1.166105303668189</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5503076336612764</v>
+        <v>1.353910695859099</v>
       </c>
       <c r="C19">
-        <v>0.2635500773689259</v>
+        <v>0.1306101976518477</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2719847263103397</v>
+        <v>0.1366796836291684</v>
       </c>
       <c r="F19">
-        <v>1.898342867093504</v>
+        <v>1.025037152047773</v>
       </c>
       <c r="G19">
-        <v>0.6522983831905833</v>
+        <v>0.2971365050612391</v>
       </c>
       <c r="H19">
-        <v>0.7787804216965313</v>
+        <v>0.2814310532583448</v>
       </c>
       <c r="I19">
-        <v>0.8518691985340077</v>
+        <v>0.3210395303792666</v>
       </c>
       <c r="J19">
-        <v>0.06838736972906645</v>
+        <v>0.1169784221710941</v>
       </c>
       <c r="K19">
-        <v>0.3399297963492529</v>
+        <v>1.09807696228674</v>
       </c>
       <c r="L19">
-        <v>0.4928060947133872</v>
+        <v>0.4114888043630316</v>
       </c>
       <c r="M19">
-        <v>0.234527006835485</v>
+        <v>0.3674607414389399</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.853511546154778</v>
+        <v>1.167043009420283</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.566285353543833</v>
+        <v>1.406601115163539</v>
       </c>
       <c r="C20">
-        <v>0.2632458463716603</v>
+        <v>0.1301298196420326</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2721297213970111</v>
+        <v>0.1389372318563247</v>
       </c>
       <c r="F20">
-        <v>1.897945221103214</v>
+        <v>1.040245636718481</v>
       </c>
       <c r="G20">
-        <v>0.6504030439158299</v>
+        <v>0.2971947604383089</v>
       </c>
       <c r="H20">
-        <v>0.7766975242758747</v>
+        <v>0.2793972726426119</v>
       </c>
       <c r="I20">
-        <v>0.8490611188505284</v>
+        <v>0.3179785360330278</v>
       </c>
       <c r="J20">
-        <v>0.06945593421074392</v>
+        <v>0.1201576178276724</v>
       </c>
       <c r="K20">
-        <v>0.3528023780751539</v>
+        <v>1.138308978771619</v>
       </c>
       <c r="L20">
-        <v>0.4955997653556778</v>
+        <v>0.4242171736148492</v>
       </c>
       <c r="M20">
-        <v>0.2384218631949011</v>
+        <v>0.3814485362504527</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.845209450521622</v>
+        <v>1.163027334170266</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6199770873251111</v>
+        <v>1.583960652024331</v>
       </c>
       <c r="C21">
-        <v>0.2622722762856888</v>
+        <v>0.1285962581372679</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2727230302020978</v>
+        <v>0.1467061925651478</v>
       </c>
       <c r="F21">
-        <v>1.897647664569888</v>
+        <v>1.093608187742873</v>
       </c>
       <c r="G21">
-        <v>0.6444794288454645</v>
+        <v>0.2984964886248207</v>
       </c>
       <c r="H21">
-        <v>0.7700364307535494</v>
+        <v>0.2732078629196053</v>
       </c>
       <c r="I21">
-        <v>0.8400735854195744</v>
+        <v>0.3086363839741999</v>
       </c>
       <c r="J21">
-        <v>0.07302962288183323</v>
+        <v>0.1308418636499482</v>
       </c>
       <c r="K21">
-        <v>0.3959505455478052</v>
+        <v>1.273602224887725</v>
       </c>
       <c r="L21">
-        <v>0.5051795339676062</v>
+        <v>0.4673873746938284</v>
       </c>
       <c r="M21">
-        <v>0.251567644460188</v>
+        <v>0.4286255002757926</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.818954870014593</v>
+        <v>1.153219120172352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6550701253004547</v>
+        <v>1.70017244339823</v>
       </c>
       <c r="C22">
-        <v>0.2616720751901944</v>
+        <v>0.1276547597003272</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2731895823536163</v>
+        <v>0.1519274773969386</v>
       </c>
       <c r="F22">
-        <v>1.898225751603235</v>
+        <v>1.130267213429121</v>
       </c>
       <c r="G22">
-        <v>0.6409393777528152</v>
+        <v>0.3002179897067307</v>
       </c>
       <c r="H22">
-        <v>0.7659340319911294</v>
+        <v>0.2696626135585092</v>
       </c>
       <c r="I22">
-        <v>0.8345329103531398</v>
+        <v>0.303264641387333</v>
       </c>
       <c r="J22">
-        <v>0.07535272507475099</v>
+        <v>0.1378292219833952</v>
       </c>
       <c r="K22">
-        <v>0.4240713313851927</v>
+        <v>1.362151051530674</v>
       </c>
       <c r="L22">
-        <v>0.5115835320339386</v>
+        <v>0.4959264032280117</v>
       </c>
       <c r="M22">
-        <v>0.2602024810451482</v>
+        <v>0.4596095864624559</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.803017467383526</v>
+        <v>1.149695034942013</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6363403590320047</v>
+        <v>1.638117290680157</v>
       </c>
       <c r="C23">
-        <v>0.2619891212842909</v>
+        <v>0.1281516402193645</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2729333859591563</v>
+        <v>0.1491271739550584</v>
       </c>
       <c r="F23">
-        <v>1.897846619043563</v>
+        <v>1.11053206100685</v>
       </c>
       <c r="G23">
-        <v>0.6427984421003998</v>
+        <v>0.2992164475967201</v>
       </c>
       <c r="H23">
-        <v>0.7681006096083109</v>
+        <v>0.2715077138019026</v>
       </c>
       <c r="I23">
-        <v>0.8374595935804692</v>
+        <v>0.3060624060632868</v>
       </c>
       <c r="J23">
-        <v>0.0741139980365233</v>
+        <v>0.1340993417237044</v>
       </c>
       <c r="K23">
-        <v>0.409070166493251</v>
+        <v>1.314876735750175</v>
       </c>
       <c r="L23">
-        <v>0.5081525773654931</v>
+        <v>0.4806633285795954</v>
       </c>
       <c r="M23">
-        <v>0.2555900147776597</v>
+        <v>0.4430578234506157</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.811411814401822</v>
+        <v>1.151302529175112</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.565407889849638</v>
+        <v>1.40370651037523</v>
       </c>
       <c r="C24">
-        <v>0.2632623700680732</v>
+        <v>0.1301558990934168</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2721213588206908</v>
+        <v>0.1388125829338271</v>
       </c>
       <c r="F24">
-        <v>1.897963147478862</v>
+        <v>1.039402179149207</v>
       </c>
       <c r="G24">
-        <v>0.6505054550780045</v>
+        <v>0.2971875152887904</v>
       </c>
       <c r="H24">
-        <v>0.7768106379494171</v>
+        <v>0.2795065856285532</v>
       </c>
       <c r="I24">
-        <v>0.8492136423486158</v>
+        <v>0.3181431639954084</v>
       </c>
       <c r="J24">
-        <v>0.06939731552390072</v>
+        <v>0.1199830284428103</v>
       </c>
       <c r="K24">
-        <v>0.3520958531085228</v>
+        <v>1.136099273652974</v>
       </c>
       <c r="L24">
-        <v>0.4954456198877892</v>
+        <v>0.4235167275475789</v>
       </c>
       <c r="M24">
-        <v>0.2382077492555865</v>
+        <v>0.3806797588549813</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.845659193927702</v>
+        <v>1.163234344085851</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.488932688979105</v>
+        <v>1.151793588647536</v>
       </c>
       <c r="C25">
-        <v>0.2647916223449549</v>
+        <v>0.1325735661950347</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2715858045755191</v>
+        <v>0.1282611811304086</v>
       </c>
       <c r="F25">
-        <v>1.901414953077762</v>
+        <v>0.9697245340462644</v>
       </c>
       <c r="G25">
-        <v>0.6602407292113455</v>
+        <v>0.2984427860266123</v>
       </c>
       <c r="H25">
-        <v>0.7872853104100912</v>
+        <v>0.2901537366078486</v>
       </c>
       <c r="I25">
-        <v>0.8633236876393759</v>
+        <v>0.3341249266631792</v>
       </c>
       <c r="J25">
-        <v>0.06425705493904132</v>
+        <v>0.1047590618471546</v>
       </c>
       <c r="K25">
-        <v>0.290320108543682</v>
+        <v>0.9435626797898351</v>
       </c>
       <c r="L25">
-        <v>0.4823603548444737</v>
+        <v>0.3631218394050393</v>
       </c>
       <c r="M25">
-        <v>0.2196512273843467</v>
+        <v>0.3139354101744658</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.887846983560053</v>
+        <v>1.187604703183098</v>
       </c>
     </row>
   </sheetData>
